--- a/config_8.24/rank_server.xlsx
+++ b/config_8.24/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3419,9 +3419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5319,10 +5319,10 @@
         <v>111</v>
       </c>
       <c r="F53" s="47">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="G53" s="47">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
       <c r="H53" s="40" t="s">
         <v>14</v>
@@ -11561,7 +11561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
@@ -12202,7 +12202,7 @@
         <v>229</v>
       </c>
       <c r="C55" s="51">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12293,7 +12293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O335" sqref="O335"/>
     </sheetView>
